--- a/data/trans_orig/P44D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161BB516-8C09-48AA-9038-5534F85684BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CED98C-C4B3-4059-984B-50C2009E1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7201A291-2773-4CC4-8B30-D3EF1436F209}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EF428A8-7AFE-4522-A620-6BA81D53FA64}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="403">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -433,826 +433,820 @@
     <t>20,91%</t>
   </si>
   <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>93,38%</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401F6BE-FA89-4134-8CFA-C21E2D75E9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F52AE-E253-4B40-9450-35F7CF6CEA7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3177,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4633442-552F-42FF-9CFC-B650E9CD4FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B052363-C442-4B0A-8F47-72EF829AC0DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4708,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88BE82D-36BF-4377-9A69-3713E1E92F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3687CD55-F286-4C0E-9D83-436A28D061F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4838,7 +4832,7 @@
         <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4847,13 +4841,13 @@
         <v>2469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4862,13 +4856,13 @@
         <v>6044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4877,13 @@
         <v>62867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4898,13 +4892,13 @@
         <v>32139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
@@ -4913,13 +4907,13 @@
         <v>95006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4981,13 @@
         <v>6899</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5002,13 +4996,13 @@
         <v>3242</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5017,13 +5011,13 @@
         <v>10141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5032,13 @@
         <v>60167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5053,13 +5047,13 @@
         <v>39535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -5935,7 +5929,7 @@
         <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>377</v>
@@ -5950,10 +5944,10 @@
         <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5962,13 @@
         <v>190772</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H26" s="7">
         <v>222</v>
@@ -5983,13 +5977,13 @@
         <v>146516</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>399</v>
@@ -5998,13 +5992,13 @@
         <v>337289</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>388</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6066,13 @@
         <v>55568</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -6087,13 +6081,13 @@
         <v>38697</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -6102,13 +6096,13 @@
         <v>94265</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6117,13 @@
         <v>563462</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H29" s="7">
         <v>835</v>
@@ -6138,13 +6132,13 @@
         <v>489584</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M29" s="7">
         <v>1482</v>
@@ -6153,13 +6147,13 @@
         <v>1053045</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CED98C-C4B3-4059-984B-50C2009E1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02744D4F-14CD-4969-B5CE-B210340570AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EF428A8-7AFE-4522-A620-6BA81D53FA64}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B18005C4-44D6-4CFD-839E-CDA6E46C487D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -88,28 +88,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,04%</t>
+    <t>40,38%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>32,3%</t>
+    <t>33,25%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>54,96%</t>
+    <t>59,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -118,16 +118,16 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>67,7%</t>
+    <t>66,75%</t>
   </si>
   <si>
     <t>87,89%</t>
   </si>
   <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>11,09%</t>
   </si>
   <si>
-    <t>50,18%</t>
+    <t>50,27%</t>
   </si>
   <si>
     <t>0%</t>
@@ -151,13 +151,13 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>27,1%</t>
+    <t>23,78%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>49,82%</t>
+    <t>49,73%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -166,7 +166,7 @@
     <t>95,24%</t>
   </si>
   <si>
-    <t>72,9%</t>
+    <t>76,22%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -175,55 +175,55 @@
     <t>30,13%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>69,87%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -232,7 +232,7 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>65,74%</t>
+    <t>65,33%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -241,13 +241,13 @@
     <t>7,65%</t>
   </si>
   <si>
-    <t>31,9%</t>
+    <t>31,77%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>34,26%</t>
+    <t>34,67%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -256,7 +256,7 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>68,1%</t>
+    <t>68,23%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -265,25 +265,25 @@
     <t>10,27%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>51,78%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>27,57%</t>
+    <t>31,72%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>48,22%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>72,43%</t>
+    <t>68,28%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -292,49 +292,49 @@
     <t>17,13%</t>
   </si>
   <si>
-    <t>47,8%</t>
+    <t>46,41%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>52,2%</t>
+    <t>53,59%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -346,13 +346,13 @@
     <t>14,64%</t>
   </si>
   <si>
-    <t>44,11%</t>
+    <t>43,39%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>16,78%</t>
+    <t>17,89%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -361,13 +361,13 @@
     <t>85,36%</t>
   </si>
   <si>
-    <t>55,89%</t>
+    <t>56,61%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>83,22%</t>
+    <t>82,11%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -376,31 +376,31 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,27%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,73%</t>
+    <t>77,71%</t>
   </si>
   <si>
     <t>93,42%</t>
@@ -409,796 +409,802 @@
     <t>82,08%</t>
   </si>
   <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,71%)</t>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>96,89%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
   </si>
   <si>
     <t>8,98%</t>
@@ -1658,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F52AE-E253-4B40-9450-35F7CF6CEA7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E081114E-FE3E-4AA2-A24C-340833900A30}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3171,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B052363-C442-4B0A-8F47-72EF829AC0DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34FCFBF-0B35-48D1-85FC-80E3B0535CA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4261,7 +4267,7 @@
         <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4282,13 @@
         <v>35773</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -4291,10 +4297,10 @@
         <v>26070</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -4306,13 +4312,13 @@
         <v>61842</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4386,13 @@
         <v>4197</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4395,13 +4401,13 @@
         <v>4265</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4410,13 +4416,13 @@
         <v>8462</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4437,13 @@
         <v>21285</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4446,13 +4452,13 @@
         <v>6747</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4461,13 +4467,13 @@
         <v>28032</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4541,13 @@
         <v>22912</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -4550,13 +4556,13 @@
         <v>12404</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -4565,13 +4571,13 @@
         <v>35316</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4592,13 @@
         <v>134646</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -4601,13 +4607,13 @@
         <v>96400</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>211</v>
@@ -4616,13 +4622,13 @@
         <v>231046</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3687CD55-F286-4C0E-9D83-436A28D061F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92545EAF-0436-4824-8BDC-F83BC0E7E51A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4719,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4826,13 +4832,13 @@
         <v>3575</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4841,13 +4847,13 @@
         <v>2469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4856,13 +4862,13 @@
         <v>6044</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4883,13 @@
         <v>62867</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4892,7 +4898,7 @@
         <v>32139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>268</v>
@@ -4999,10 +5005,10 @@
         <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5011,13 +5017,13 @@
         <v>10141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5038,13 @@
         <v>60167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5047,13 +5053,13 @@
         <v>39535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -5062,13 +5068,13 @@
         <v>99702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5142,13 @@
         <v>3844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5151,13 +5157,13 @@
         <v>5940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5166,13 +5172,13 @@
         <v>9784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5193,13 @@
         <v>55635</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -5202,13 +5208,13 @@
         <v>54291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>169</v>
@@ -5217,13 +5223,13 @@
         <v>109927</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5297,13 @@
         <v>5427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5306,13 +5312,13 @@
         <v>8321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -5321,13 +5327,13 @@
         <v>13748</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5348,13 @@
         <v>50297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -5357,13 +5363,13 @@
         <v>55038</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -5372,13 +5378,13 @@
         <v>105336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5452,13 @@
         <v>1084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5461,13 +5467,13 @@
         <v>438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5476,13 +5482,13 @@
         <v>1522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,10 +5503,10 @@
         <v>13168</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -5512,7 +5518,7 @@
         <v>14828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>335</v>
@@ -5929,7 +5935,7 @@
         <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>377</v>
@@ -5944,10 +5950,10 @@
         <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5968,13 @@
         <v>190772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H26" s="7">
         <v>222</v>
@@ -5977,13 +5983,13 @@
         <v>146516</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>399</v>
@@ -5992,13 +5998,13 @@
         <v>337289</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6072,13 @@
         <v>55568</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -6081,13 +6087,13 @@
         <v>38697</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -6096,13 +6102,13 @@
         <v>94265</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6123,13 @@
         <v>563462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H29" s="7">
         <v>835</v>
@@ -6132,13 +6138,13 @@
         <v>489584</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M29" s="7">
         <v>1482</v>
@@ -6147,13 +6153,13 @@
         <v>1053045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02744D4F-14CD-4969-B5CE-B210340570AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBB001F-62FA-443A-BA66-772EC78B7C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B18005C4-44D6-4CFD-839E-CDA6E46C487D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D310CF87-5A09-4BBD-89B4-912AE5074CCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -88,28 +88,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>40,38%</t>
+    <t>45,04%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>33,25%</t>
+    <t>32,3%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>59,62%</t>
+    <t>54,96%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -118,16 +118,16 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>66,75%</t>
+    <t>67,7%</t>
   </si>
   <si>
     <t>87,89%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>11,09%</t>
   </si>
   <si>
-    <t>50,27%</t>
+    <t>50,18%</t>
   </si>
   <si>
     <t>0%</t>
@@ -151,13 +151,13 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>23,78%</t>
+    <t>27,1%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>49,73%</t>
+    <t>49,82%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -166,7 +166,7 @@
     <t>95,24%</t>
   </si>
   <si>
-    <t>76,22%</t>
+    <t>72,9%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -175,115 +175,115 @@
     <t>30,13%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>4,43%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>68,28%</t>
+    <t>72,43%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -292,49 +292,49 @@
     <t>17,13%</t>
   </si>
   <si>
-    <t>46,41%</t>
+    <t>47,8%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>53,59%</t>
+    <t>52,2%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -346,13 +346,13 @@
     <t>14,64%</t>
   </si>
   <si>
-    <t>43,39%</t>
+    <t>44,11%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>17,89%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -361,13 +361,13 @@
     <t>85,36%</t>
   </si>
   <si>
-    <t>56,61%</t>
+    <t>55,89%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>82,11%</t>
+    <t>83,22%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -376,31 +376,31 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>22,27%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,71%</t>
+    <t>77,73%</t>
   </si>
   <si>
     <t>93,42%</t>
@@ -409,19 +409,19 @@
     <t>82,08%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -433,10 +433,10 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -448,16 +448,16 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>28,99%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -466,7 +466,7 @@
     <t>87,57%</t>
   </si>
   <si>
-    <t>71,01%</t>
+    <t>70,8%</t>
   </si>
   <si>
     <t>97,03%</t>
@@ -475,127 +475,127 @@
     <t>19,26%</t>
   </si>
   <si>
-    <t>79,35%</t>
+    <t>76,28%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>27,82%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>20,65%</t>
+    <t>23,72%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>72,18%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>34,15%</t>
+    <t>32,26%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>65,85%</t>
+    <t>67,74%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>33,28%</t>
@@ -607,7 +607,7 @@
     <t>20,05%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>80,77%</t>
   </si>
   <si>
     <t>66,72%</t>
@@ -619,13 +619,13 @@
     <t>79,95%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>19,23%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>39,74%</t>
+    <t>44,76%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -634,13 +634,13 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>26,77%</t>
+    <t>26,89%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>60,26%</t>
+    <t>55,24%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -649,610 +649,610 @@
     <t>94,72%</t>
   </si>
   <si>
-    <t>73,23%</t>
+    <t>73,11%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>8,8%</t>
+    <t>8,61%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>91,2%</t>
+    <t>91,39%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>93,38%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E081114E-FE3E-4AA2-A24C-340833900A30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83111697-9302-48A2-B145-608A9A75A980}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3177,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34FCFBF-0B35-48D1-85FC-80E3B0535CA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5346000-57D5-4393-AB7F-7E5C492ADC4A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4267,7 +4267,7 @@
         <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4282,13 @@
         <v>35773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -4297,10 +4297,10 @@
         <v>26070</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>24</v>
@@ -4312,13 +4312,13 @@
         <v>61842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4386,13 @@
         <v>4197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4401,13 +4401,13 @@
         <v>4265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4416,13 +4416,13 @@
         <v>8462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4437,13 @@
         <v>21285</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4452,13 +4452,13 @@
         <v>6747</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4467,13 +4467,13 @@
         <v>28032</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4541,13 @@
         <v>22912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -4556,13 +4556,13 @@
         <v>12404</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -4571,13 +4571,13 @@
         <v>35316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4592,13 @@
         <v>134646</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -4607,13 +4607,13 @@
         <v>96400</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>211</v>
@@ -4622,13 +4622,13 @@
         <v>231046</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92545EAF-0436-4824-8BDC-F83BC0E7E51A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66F32E8-7D99-4CDF-B014-BDB0AF0E3803}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4725,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4832,13 +4832,13 @@
         <v>3575</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4847,13 +4847,13 @@
         <v>2469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4886,10 +4886,10 @@
         <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4898,13 +4898,13 @@
         <v>32139</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
@@ -4913,13 +4913,13 @@
         <v>95006</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4987,13 @@
         <v>6899</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5002,13 +5002,13 @@
         <v>3242</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5017,13 +5017,13 @@
         <v>10141</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5038,13 @@
         <v>60167</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5053,13 +5053,13 @@
         <v>39535</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -5068,13 +5068,13 @@
         <v>99702</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5142,13 @@
         <v>3844</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5157,13 +5157,13 @@
         <v>5940</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5172,13 +5172,13 @@
         <v>9784</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5193,13 @@
         <v>55635</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -5208,13 +5208,13 @@
         <v>54291</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>169</v>
@@ -5223,13 +5223,13 @@
         <v>109927</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5297,13 @@
         <v>5427</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5312,13 +5312,13 @@
         <v>8321</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -5327,13 +5327,13 @@
         <v>13748</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5348,13 @@
         <v>50297</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -5363,13 +5363,13 @@
         <v>55038</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -5378,13 +5378,13 @@
         <v>105336</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5452,13 @@
         <v>1084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5467,13 +5467,13 @@
         <v>438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5482,13 +5482,13 @@
         <v>1522</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,10 +5503,10 @@
         <v>13168</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -5518,7 +5518,7 @@
         <v>14828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>335</v>
@@ -5989,7 +5989,7 @@
         <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>399</v>
@@ -6087,13 +6087,13 @@
         <v>38697</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -6102,13 +6102,13 @@
         <v>94265</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6138,13 @@
         <v>489584</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M29" s="7">
         <v>1482</v>
@@ -6153,10 +6153,10 @@
         <v>1053045</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>404</v>

--- a/data/trans_orig/P44D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBB001F-62FA-443A-BA66-772EC78B7C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8DA951A-7481-46E9-8FE3-3DCDAA9CC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D310CF87-5A09-4BBD-89B4-912AE5074CCE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{225B929D-7CAC-4272-8F6D-A594C999C21E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="422">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -73,21 +73,72 @@
     <t>Servicio sanitario privado</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
   </si>
   <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>45,04%</t>
   </si>
   <si>
@@ -112,9 +163,6 @@
     <t>54,96%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>88,9%</t>
   </si>
   <si>
@@ -130,9 +178,6 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -172,1087 +217,1093 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83111697-9302-48A2-B145-608A9A75A980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950117C9-2E1A-4142-8AAE-AB9E3ADFF173}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1782,88 +1833,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1938</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4021</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5959</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5017</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7049</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>12066</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,48 +1935,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6955</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11070</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="N6" s="7">
+        <v>18025</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1925,13 +1994,13 @@
         <v>3126</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1940,13 +2009,13 @@
         <v>2266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1955,19 +2024,19 @@
         <v>5393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -1976,13 +2045,13 @@
         <v>20987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -1991,13 +2060,13 @@
         <v>18147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -2006,13 +2075,13 @@
         <v>39133</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,7 +2137,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2080,13 +2149,13 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2095,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2110,19 +2179,19 @@
         <v>1022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>7</v>
@@ -2131,13 +2200,13 @@
         <v>8197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2146,10 +2215,10 @@
         <v>12264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2161,13 +2230,13 @@
         <v>20460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,106 +2292,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>5385</v>
+        <v>3447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>4978</v>
+        <v>956</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>10362</v>
+        <v>4403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>12489</v>
+        <v>7472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <v>13743</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="7">
         <v>20</v>
       </c>
-      <c r="I14" s="7">
-        <v>20792</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>32</v>
-      </c>
       <c r="N14" s="7">
-        <v>33281</v>
+        <v>21215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>17874</v>
+        <v>10919</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2346,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>25770</v>
+        <v>14699</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2361,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N15" s="7">
-        <v>43643</v>
+        <v>25618</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2378,7 +2447,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2459,13 @@
         <v>984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2405,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2420,19 +2489,19 @@
         <v>984</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -2441,13 +2510,13 @@
         <v>5314</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2456,10 +2525,10 @@
         <v>6566</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2471,13 +2540,13 @@
         <v>11880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2602,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2614,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2560,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2575,19 +2644,19 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -2596,13 +2665,13 @@
         <v>9217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2611,10 +2680,10 @@
         <v>6292</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2626,13 +2695,13 @@
         <v>15509</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2757,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2769,13 @@
         <v>3079</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2715,13 +2784,13 @@
         <v>10088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2730,19 +2799,19 @@
         <v>13167</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>13</v>
@@ -2751,13 +2820,13 @@
         <v>14895</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -2766,13 +2835,13 @@
         <v>12577</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -2781,13 +2850,13 @@
         <v>27471</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2912,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2870,13 +2939,13 @@
         <v>2202</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2885,19 +2954,19 @@
         <v>2202</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>23</v>
@@ -2906,10 +2975,10 @@
         <v>26957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -2921,13 +2990,13 @@
         <v>12843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -2936,13 +3005,13 @@
         <v>39800</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3079,13 @@
         <v>14651</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -3025,13 +3094,13 @@
         <v>19534</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -3040,19 +3109,19 @@
         <v>34185</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>86</v>
@@ -3061,13 +3130,13 @@
         <v>98055</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -3076,13 +3145,13 @@
         <v>89479</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>170</v>
@@ -3091,13 +3160,13 @@
         <v>187534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3222,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5346000-57D5-4393-AB7F-7E5C492ADC4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F782172C-F0C9-4874-AFA1-E2437FFD6E8B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3301,13 +3370,13 @@
         <v>4884</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3316,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3331,19 +3400,19 @@
         <v>4884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>18</v>
@@ -3352,13 +3421,13 @@
         <v>18477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3367,10 +3436,10 @@
         <v>15939</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -3382,13 +3451,13 @@
         <v>34416</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3513,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3471,13 +3540,13 @@
         <v>1083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3486,19 +3555,19 @@
         <v>1083</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -3507,10 +3576,10 @@
         <v>11204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -3522,13 +3591,13 @@
         <v>4539</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -3537,13 +3606,13 @@
         <v>15744</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3668,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3611,13 +3680,13 @@
         <v>2663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3626,13 +3695,13 @@
         <v>1233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3641,19 +3710,19 @@
         <v>3896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>16</v>
@@ -3662,13 +3731,13 @@
         <v>15597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3677,13 +3746,13 @@
         <v>15812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -3692,13 +3761,13 @@
         <v>31409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3823,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3766,13 +3835,13 @@
         <v>4896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3781,13 +3850,13 @@
         <v>3694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3796,19 +3865,19 @@
         <v>8590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -3817,13 +3886,13 @@
         <v>20945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3832,13 +3901,13 @@
         <v>16727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -3847,13 +3916,13 @@
         <v>37672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,7 +3978,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3921,13 +3990,13 @@
         <v>989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3936,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3951,19 +4020,19 @@
         <v>989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -3972,13 +4041,13 @@
         <v>1983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3987,10 +4056,10 @@
         <v>1962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4002,13 +4071,13 @@
         <v>3944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4133,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4076,13 +4145,13 @@
         <v>1004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4091,13 +4160,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4106,19 +4175,19 @@
         <v>1004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -4127,13 +4196,13 @@
         <v>9383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4142,10 +4211,10 @@
         <v>8605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4157,13 +4226,13 @@
         <v>17987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4288,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4231,13 +4300,13 @@
         <v>4279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4246,13 +4315,13 @@
         <v>2128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4261,19 +4330,19 @@
         <v>6408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>34</v>
@@ -4282,13 +4351,13 @@
         <v>35773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -4297,13 +4366,13 @@
         <v>26070</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -4312,13 +4381,13 @@
         <v>61842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4443,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4386,13 +4455,13 @@
         <v>4197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4401,13 +4470,13 @@
         <v>4265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4416,19 +4485,19 @@
         <v>8462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>18</v>
@@ -4437,13 +4506,13 @@
         <v>21285</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4452,13 +4521,13 @@
         <v>6747</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4467,13 +4536,13 @@
         <v>28032</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4610,13 @@
         <v>22912</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -4556,13 +4625,13 @@
         <v>12404</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -4571,19 +4640,19 @@
         <v>35316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>129</v>
@@ -4592,13 +4661,13 @@
         <v>134646</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -4607,13 +4676,13 @@
         <v>96400</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M29" s="7">
         <v>211</v>
@@ -4622,13 +4691,13 @@
         <v>231046</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4753,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66F32E8-7D99-4CDF-B014-BDB0AF0E3803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464F9C20-0BEA-46A1-B5D3-BD0B6638AD3D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4725,7 +4794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4829,97 +4898,97 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3575</v>
+        <v>3886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2469</v>
+        <v>2548</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>6044</v>
+        <v>6433</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>62867</v>
+        <v>69481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>32139</v>
+        <v>33131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
       </c>
       <c r="N5" s="7">
-        <v>95006</v>
+        <v>102613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +5000,7 @@
         <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>66442</v>
+        <v>73367</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4946,7 +5015,7 @@
         <v>75</v>
       </c>
       <c r="I6" s="7">
-        <v>34608</v>
+        <v>35679</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4961,7 +5030,7 @@
         <v>169</v>
       </c>
       <c r="N6" s="7">
-        <v>101050</v>
+        <v>109046</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4975,7 +5044,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4984,97 +5053,97 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>6899</v>
+        <v>6497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3242</v>
+        <v>3006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>10141</v>
+        <v>9503</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>56</v>
       </c>
       <c r="D8" s="7">
-        <v>60167</v>
+        <v>57054</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>39535</v>
+        <v>36511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
       </c>
       <c r="N8" s="7">
-        <v>99702</v>
+        <v>93566</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,7 +5155,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>67066</v>
+        <v>63551</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5101,7 +5170,7 @@
         <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>42777</v>
+        <v>39517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5116,7 +5185,7 @@
         <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>109843</v>
+        <v>103069</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5130,7 +5199,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5139,97 +5208,97 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3844</v>
+        <v>3672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>5940</v>
+        <v>5453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>9784</v>
+        <v>9126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>55635</v>
+        <v>53128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
       </c>
       <c r="I11" s="7">
-        <v>54291</v>
+        <v>50301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>169</v>
       </c>
       <c r="N11" s="7">
-        <v>109927</v>
+        <v>103429</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5310,7 @@
         <v>80</v>
       </c>
       <c r="D12" s="7">
-        <v>59479</v>
+        <v>56800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5256,7 +5325,7 @@
         <v>103</v>
       </c>
       <c r="I12" s="7">
-        <v>60231</v>
+        <v>55754</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5271,7 +5340,7 @@
         <v>183</v>
       </c>
       <c r="N12" s="7">
-        <v>119711</v>
+        <v>112555</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5285,7 +5354,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5294,97 +5363,97 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>5427</v>
+        <v>5154</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>8321</v>
+        <v>7715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>13748</v>
+        <v>12869</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>50297</v>
+        <v>47716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>55038</v>
+        <v>51462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
       </c>
       <c r="N14" s="7">
-        <v>105336</v>
+        <v>99177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5465,7 @@
         <v>73</v>
       </c>
       <c r="D15" s="7">
-        <v>55724</v>
+        <v>52870</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5411,7 +5480,7 @@
         <v>123</v>
       </c>
       <c r="I15" s="7">
-        <v>63359</v>
+        <v>59177</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5426,7 +5495,7 @@
         <v>196</v>
       </c>
       <c r="N15" s="7">
-        <v>119084</v>
+        <v>112046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5440,7 +5509,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5449,97 +5518,97 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1084</v>
+        <v>979</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1522</v>
+        <v>1377</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>13168</v>
+        <v>11894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>14828</v>
+        <v>13539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
       </c>
       <c r="N17" s="7">
-        <v>27995</v>
+        <v>25433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5620,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>14252</v>
+        <v>12873</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5566,7 +5635,7 @@
         <v>39</v>
       </c>
       <c r="I18" s="7">
-        <v>15266</v>
+        <v>13937</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5581,7 +5650,7 @@
         <v>63</v>
       </c>
       <c r="N18" s="7">
-        <v>29517</v>
+        <v>26810</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5595,7 +5664,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5604,97 +5673,97 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1709</v>
+        <v>1624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>2478</v>
+        <v>2341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>61</v>
       </c>
       <c r="D20" s="7">
-        <v>39136</v>
+        <v>37311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
       </c>
       <c r="I20" s="7">
-        <v>32101</v>
+        <v>29835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
       </c>
       <c r="N20" s="7">
-        <v>71237</v>
+        <v>67145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,7 +5775,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="7">
-        <v>40845</v>
+        <v>38935</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5721,7 +5790,7 @@
         <v>63</v>
       </c>
       <c r="I21" s="7">
-        <v>32870</v>
+        <v>30552</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5736,7 +5805,7 @@
         <v>127</v>
       </c>
       <c r="N21" s="7">
-        <v>73715</v>
+        <v>69486</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5750,7 +5819,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5759,97 +5828,97 @@
         <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>21561</v>
+        <v>20443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>9246</v>
+        <v>8512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>30807</v>
+        <v>28955</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>103</v>
       </c>
       <c r="D23" s="7">
-        <v>91418</v>
+        <v>86993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>182</v>
       </c>
       <c r="I23" s="7">
-        <v>115134</v>
+        <v>106188</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>285</v>
       </c>
       <c r="N23" s="7">
-        <v>206553</v>
+        <v>193181</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,7 +5930,7 @@
         <v>127</v>
       </c>
       <c r="D24" s="7">
-        <v>112979</v>
+        <v>107436</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5876,7 +5945,7 @@
         <v>197</v>
       </c>
       <c r="I24" s="7">
-        <v>124380</v>
+        <v>114700</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5891,7 +5960,7 @@
         <v>324</v>
       </c>
       <c r="N24" s="7">
-        <v>237360</v>
+        <v>222136</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5905,7 +5974,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5914,97 +5983,97 @@
         <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>11470</v>
+        <v>9679</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
       </c>
       <c r="I25" s="7">
-        <v>8273</v>
+        <v>6932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
       </c>
       <c r="N25" s="7">
-        <v>19742</v>
+        <v>16610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>177</v>
       </c>
       <c r="D26" s="7">
-        <v>190772</v>
+        <v>363652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>222</v>
       </c>
       <c r="I26" s="7">
-        <v>146516</v>
+        <v>123175</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>399</v>
       </c>
       <c r="N26" s="7">
-        <v>337289</v>
+        <v>486828</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,7 +6085,7 @@
         <v>189</v>
       </c>
       <c r="D27" s="7">
-        <v>202242</v>
+        <v>373331</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -6031,7 +6100,7 @@
         <v>234</v>
       </c>
       <c r="I27" s="7">
-        <v>154789</v>
+        <v>130107</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6046,7 +6115,7 @@
         <v>423</v>
       </c>
       <c r="N27" s="7">
-        <v>357031</v>
+        <v>503438</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -6069,97 +6138,97 @@
         <v>66</v>
       </c>
       <c r="D28" s="7">
-        <v>55568</v>
+        <v>51933</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
       </c>
       <c r="I28" s="7">
-        <v>38697</v>
+        <v>35281</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
       </c>
       <c r="N28" s="7">
-        <v>94265</v>
+        <v>87214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>647</v>
       </c>
       <c r="D29" s="7">
-        <v>563462</v>
+        <v>727230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>835</v>
       </c>
       <c r="I29" s="7">
-        <v>489584</v>
+        <v>444142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>416</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M29" s="7">
         <v>1482</v>
       </c>
       <c r="N29" s="7">
-        <v>1053045</v>
+        <v>1171373</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,7 +6240,7 @@
         <v>713</v>
       </c>
       <c r="D30" s="7">
-        <v>619030</v>
+        <v>779163</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6186,7 +6255,7 @@
         <v>900</v>
       </c>
       <c r="I30" s="7">
-        <v>528281</v>
+        <v>479423</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6201,7 +6270,7 @@
         <v>1613</v>
       </c>
       <c r="N30" s="7">
-        <v>1147310</v>
+        <v>1258587</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6215,7 +6284,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
